--- a/data/nta_all.xlsx
+++ b/data/nta_all.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
       <selection activeCell="K130" sqref="K130"/>
@@ -6433,6 +6433,2427 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>21.08.2023 11:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Быстрый старт с Zsh и Powerlevel10k: двигаемся к терминалу мечты</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>05.07.2023</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>241</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/748721-bystryy-start-s-zsh-i-powerlevel10k-dvigaemsya-k-terminalu-mechty</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Тайны виртуальных конвертов: чтение и парсинг .pst файлов</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>07.07.2023</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>194</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/748880-tayny-virtualnyh-konvertov-chtenie-i-parsing-pst-faylov</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Генерация приложений “по требованию” (ODAG) в QlikSense</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>10.07.2023</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>270</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/753665-generaciya-prilozheniy-po-trebovaniyu-odag-v-qliksense</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>«Пробенчмаркать уже это всё наконец» – тестирование инструментов для обработки данных на Python. Часть 1</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>14.07.2023</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>348</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/758923-probenchmarkat-uzhe-eto-vse-nakonec-testirovanie-instrumentov-dlya-obrabotki-dannyh-na-python-chast-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Оптимизации работы Jupyter notebook при помощи параллельных вычислений (Библиотека Joblib)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>17.07.2023</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>419</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/759018-optimizacii-raboty-jupyter-notebook-pri-pomoshchi-parallelnyh-vychisleniy-biblioteka-joblib</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Тест-драйв PyTorch 2.0 и заглядываем под капот «двушки»</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>20.07.2023</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>441</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/761861-test-drayv-pytorch-2-0-i-zaglyadyvaem-pod-kapot-dvushki</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Vue.js. Создание динамических пользовательских интерфейсов с помощью компонентов и реактивных свойств</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>25.07.2023</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>370</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/765510-vue-js-sozdanie-dinamicheskih-polzovatelskih-interfeysov-s-pomoshchyu-komponentov-i-reaktivnyh-svoystv</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Выявление неявных связей при анализе графов или как увидеть незримое</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>27.07.2023</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>367</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/773997-vyyavlenie-neyavnyh-svyazey-pri-analize-grafov-ili-kak-uvidet-nezrimoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Как управлять своими задачами с помощью телеграм-бота на JS</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>03.08.2023</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>229</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782040-kak-upravlyat-svoimi-zadachami-s-pomoshchyu-telegram-bota-na-js</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Обработка записей разговоров на Python. Поиск пересечений в диалоге</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>07.08.2023</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>208</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/783782-obrabotka-zapisey-razgovorov-na-python-poisk-peresecheniy-v-dialoge</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Как найти младенца или выжить на Титанике?</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>09.08.2023</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>115</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782080-kak-nayti-mladenca-ili-vyzhit-na-titanike</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Использование библиотеки Facerecognition и фреймворка Django для распознавания лиц в реальном времени</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>11.08.2023</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>134</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782063-ispolzovanie-biblioteki-facerecognition-i-freymvorka-django-dlya-raspoznavaniya-lic-v-realnom-vremeni</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Microsoft Bing и ChatGPT - buddy DA-DS-аудитора</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>15.08.2023</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>97</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782118-microsoft-bing-i-chatgpt-buddy-da-ds-auditora</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Как скачать отчёты из Power BI на диск с помощью PowerShell</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>17.08.2023</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>90</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782430-kak-skachat-otchety-iz-power-bi-na-disk-s-pomoshchyu-powershell</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Тайны виртуальных конвертов: чтение и парсинг .pst файлов</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>05.07.2023</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/745824/</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Контроль за дрейфами предсказательных моделей и Popmon</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>13.07.2023</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>783</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/747694/</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Применение эффективного асинхронного web-парсинга при работе с Big Data (библиотека Scrapy)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>17.07.2023</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>2363</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/748406/</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Не ешь просрочку: Как Go и Tesseract помогают распознавать срок годности продуктов</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>20.07.2023</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>999</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/749218/</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Vue.js. Создание динамических пользовательских интерфейсов с помощью компонентов и реактивных свойств</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>24.07.2023</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1531</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/749886/</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Создай, оформи, опубликуй. Sphinx — незаменимый помощник в мире Python документации</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>28.07.2023</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>2665</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/750968/</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Широка, необъятна, интерактивна: оффлайн карта России с Plotly</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>04.08.2023</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>5529</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/752406/</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Замена Paint в задачах разметки графических данных</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>14.08.2023</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>1113</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/754000/</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Настройка взаимодействия IntelliJ IDEA с Nexus 3</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>04.07.2023</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>55269</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/28109097</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Партиционирование по диапазонам в GreenPlum. Быстрый старт.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>06.07.2023</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>4112</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/28205111</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Экспорт данных большого объема из DWH в Greenplum</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>11.07.2023</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>32661</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/28491376</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Оптимизации работы Jupyter notebook при помощи параллельных вычислений (Библиотека Joblib)</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>13.07.2023</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>7304</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30035478</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Тайны виртуальных конвертов</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>21.07.2023</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>4065</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30159348</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Поисковая система на данных СЭОДО ЦА с помощью Python и Qlik Sense</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>25.07.2023</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>16329</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30184394</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Кластеризация текста в PySpark</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>27.07.2023</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>1633</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30222514</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Выявление неявных связей при анализе графов с помощью Pyhton</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>01.08.2023</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>11027</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30278388</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Извлечение сущностей при обработке документов</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>03.08.2023</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>3706</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30324144</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Кодируй и визуализируй</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>08.08.2023</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>415</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30371419</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>21.08.2023 11:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Быстрый старт с Zsh и Powerlevel10k: двигаемся к терминалу мечты</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>05.07.2023</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>5750</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/748721-bystryy-start-s-zsh-i-powerlevel10k-dvigaemsya-k-terminalu-mechty</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Тайны виртуальных конвертов: чтение и парсинг .pst файлов</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>07.07.2023</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>3796</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/748880-tayny-virtualnyh-konvertov-chtenie-i-parsing-pst-faylov</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Генерация приложений “по требованию” (ODAG) в QlikSense</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>10.07.2023</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>246</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/753665-generaciya-prilozheniy-po-trebovaniyu-odag-v-qliksense</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>«Пробенчмаркать уже это всё наконец» – тестирование инструментов для обработки данных на Python. Часть 1</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>14.07.2023</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>5371</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/758923-probenchmarkat-uzhe-eto-vse-nakonec-testirovanie-instrumentov-dlya-obrabotki-dannyh-na-python-chast-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Оптимизации работы Jupyter notebook при помощи параллельных вычислений (Библиотека Joblib)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>17.07.2023</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/759018-optimizacii-raboty-jupyter-notebook-pri-pomoshchi-parallelnyh-vychisleniy-biblioteka-joblib</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Тест-драйв PyTorch 2.0 и заглядываем под капот «двушки»</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>20.07.2023</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/761861-test-drayv-pytorch-2-0-i-zaglyadyvaem-pod-kapot-dvushki</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Vue.js. Создание динамических пользовательских интерфейсов с помощью компонентов и реактивных свойств</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>25.07.2023</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>4993</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/765510-vue-js-sozdanie-dinamicheskih-polzovatelskih-interfeysov-s-pomoshchyu-komponentov-i-reaktivnyh-svoystv</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Выявление неявных связей при анализе графов или как увидеть незримое</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>27.07.2023</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>4944</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/773997-vyyavlenie-neyavnyh-svyazey-pri-analize-grafov-ili-kak-uvidet-nezrimoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Как управлять своими задачами с помощью телеграм-бота на JS</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>03.08.2023</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>135</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782040-kak-upravlyat-svoimi-zadachami-s-pomoshchyu-telegram-bota-na-js</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Обработка записей разговоров на Python. Поиск пересечений в диалоге</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>07.08.2023</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>3607</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/783782-obrabotka-zapisey-razgovorov-na-python-poisk-peresecheniy-v-dialoge</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Как найти младенца или выжить на Титанике?</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>09.08.2023</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>1492</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782080-kak-nayti-mladenca-ili-vyzhit-na-titanike</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Использование библиотеки Facerecognition и фреймворка Django для распознавания лиц в реальном времени</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>11.08.2023</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>3783</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782063-ispolzovanie-biblioteki-facerecognition-i-freymvorka-django-dlya-raspoznavaniya-lic-v-realnom-vremeni</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Microsoft Bing и ChatGPT - buddy DA-DS-аудитора</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>15.08.2023</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>30</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782118-microsoft-bing-i-chatgpt-buddy-da-ds-auditora</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Как скачать отчёты из Power BI на диск с помощью PowerShell</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>17.08.2023</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>2426</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782430-kak-skachat-otchety-iz-power-bi-na-disk-s-pomoshchyu-powershell</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Тайны виртуальных конвертов: чтение и парсинг .pst файлов</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>05.07.2023</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/745824/</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Контроль за дрейфами предсказательных моделей и Popmon</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>13.07.2023</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>783</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/747694/</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Применение эффективного асинхронного web-парсинга при работе с Big Data (библиотека Scrapy)</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>17.07.2023</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>2363</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/748406/</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Не ешь просрочку: Как Go и Tesseract помогают распознавать срок годности продуктов</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>20.07.2023</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>999</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/749218/</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Vue.js. Создание динамических пользовательских интерфейсов с помощью компонентов и реактивных свойств</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>24.07.2023</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>1531</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/749886/</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Создай, оформи, опубликуй. Sphinx — незаменимый помощник в мире Python документации</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>28.07.2023</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>2665</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/750968/</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Широка, необъятна, интерактивна: оффлайн карта России с Plotly</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>04.08.2023</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>5529</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/752406/</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Замена Paint в задачах разметки графических данных</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>14.08.2023</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>1113</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/754000/</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Настройка взаимодействия IntelliJ IDEA с Nexus 3</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>04.07.2023</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>55269</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/28109097</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Партиционирование по диапазонам в GreenPlum. Быстрый старт.</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>06.07.2023</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>4112</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/28205111</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Экспорт данных большого объема из DWH в Greenplum</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>11.07.2023</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>32661</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/28491376</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Оптимизации работы Jupyter notebook при помощи параллельных вычислений (Библиотека Joblib)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>13.07.2023</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>7304</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30035478</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Тайны виртуальных конвертов</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>21.07.2023</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>4065</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30159348</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Поисковая система на данных СЭОДО ЦА с помощью Python и Qlik Sense</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>25.07.2023</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>16329</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30184394</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Кластеризация текста в PySpark</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>27.07.2023</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1633</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30222514</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Выявление неявных связей при анализе графов с помощью Pyhton</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>01.08.2023</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>11027</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30278388</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Извлечение сущностей при обработке документов</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>03.08.2023</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>3706</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30324144</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Кодируй и визуализируй</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>08.08.2023</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>415</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30371419</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>21.08.2023 12:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Быстрый старт с Zsh и Powerlevel10k: двигаемся к терминалу мечты</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>05.07.2023</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>5750</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/748721-bystryy-start-s-zsh-i-powerlevel10k-dvigaemsya-k-terminalu-mechty</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Тайны виртуальных конвертов: чтение и парсинг .pst файлов</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>07.07.2023</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>3824</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/748880-tayny-virtualnyh-konvertov-chtenie-i-parsing-pst-faylov</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Генерация приложений “по требованию” (ODAG) в QlikSense</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>10.07.2023</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>246</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/753665-generaciya-prilozheniy-po-trebovaniyu-odag-v-qliksense</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>«Пробенчмаркать уже это всё наконец» – тестирование инструментов для обработки данных на Python. Часть 1</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>14.07.2023</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>5371</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/758923-probenchmarkat-uzhe-eto-vse-nakonec-testirovanie-instrumentov-dlya-obrabotki-dannyh-na-python-chast-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Оптимизации работы Jupyter notebook при помощи параллельных вычислений (Библиотека Joblib)</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>17.07.2023</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/759018-optimizacii-raboty-jupyter-notebook-pri-pomoshchi-parallelnyh-vychisleniy-biblioteka-joblib</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Тест-драйв PyTorch 2.0 и заглядываем под капот «двушки»</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>20.07.2023</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>1125</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/761861-test-drayv-pytorch-2-0-i-zaglyadyvaem-pod-kapot-dvushki</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Vue.js. Создание динамических пользовательских интерфейсов с помощью компонентов и реактивных свойств</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>25.07.2023</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>4993</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/765510-vue-js-sozdanie-dinamicheskih-polzovatelskih-interfeysov-s-pomoshchyu-komponentov-i-reaktivnyh-svoystv</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Выявление неявных связей при анализе графов или как увидеть незримое</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>27.07.2023</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>4944</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/773997-vyyavlenie-neyavnyh-svyazey-pri-analize-grafov-ili-kak-uvidet-nezrimoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Как управлять своими задачами с помощью телеграм-бота на JS</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>03.08.2023</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>135</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782040-kak-upravlyat-svoimi-zadachami-s-pomoshchyu-telegram-bota-na-js</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Обработка записей разговоров на Python. Поиск пересечений в диалоге</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>07.08.2023</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>3608</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/783782-obrabotka-zapisey-razgovorov-na-python-poisk-peresecheniy-v-dialoge</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Как найти младенца или выжить на Титанике?</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>09.08.2023</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>1616</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782080-kak-nayti-mladenca-ili-vyzhit-na-titanike</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Использование библиотеки Facerecognition и фреймворка Django для распознавания лиц в реальном времени</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>11.08.2023</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>3783</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782063-ispolzovanie-biblioteki-facerecognition-i-freymvorka-django-dlya-raspoznavaniya-lic-v-realnom-vremeni</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Microsoft Bing и ChatGPT - buddy DA-DS-аудитора</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>15.08.2023</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>31</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782118-microsoft-bing-i-chatgpt-buddy-da-ds-auditora</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Как скачать отчёты из Power BI на диск с помощью PowerShell</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>17.08.2023</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>3010</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>https://vc.ru/newtechaudit/782430-kak-skachat-otchety-iz-power-bi-na-disk-s-pomoshchyu-powershell</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Тайны виртуальных конвертов: чтение и парсинг .pst файлов</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>05.07.2023</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/745824/</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Контроль за дрейфами предсказательных моделей и Popmon</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>13.07.2023</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>783</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/747694/</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Применение эффективного асинхронного web-парсинга при работе с Big Data (библиотека Scrapy)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>17.07.2023</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>2363</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/748406/</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Не ешь просрочку: Как Go и Tesseract помогают распознавать срок годности продуктов</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>20.07.2023</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>999</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/749218/</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Vue.js. Создание динамических пользовательских интерфейсов с помощью компонентов и реактивных свойств</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>24.07.2023</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>1531</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/749886/</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Создай, оформи, опубликуй. Sphinx — незаменимый помощник в мире Python документации</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>28.07.2023</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>2665</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/750968/</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Широка, необъятна, интерактивна: оффлайн карта России с Plotly</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>04.08.2023</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>5531</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/752406/</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Habr</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Замена Paint в задачах разметки графических данных</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>14.08.2023</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>1117</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/754000/</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Настройка взаимодействия IntelliJ IDEA с Nexus 3</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>04.07.2023</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>55269</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/28109097</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Партиционирование по диапазонам в GreenPlum. Быстрый старт.</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>06.07.2023</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>4112</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/28205111</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Экспорт данных большого объема из DWH в Greenplum</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>11.07.2023</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>32661</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/28491376</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Оптимизации работы Jupyter notebook при помощи параллельных вычислений (Библиотека Joblib)</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>13.07.2023</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>7304</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30035478</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Тайны виртуальных конвертов</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>21.07.2023</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>4065</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30159348</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Поисковая система на данных СЭОДО ЦА с помощью Python и Qlik Sense</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>25.07.2023</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>16329</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30184394</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Кластеризация текста в PySpark</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>27.07.2023</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>1633</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30222514</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Выявление неявных связей при анализе графов с помощью Pyhton</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>01.08.2023</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>11027</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30278388</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Извлечение сущностей при обработке документов</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>03.08.2023</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>3706</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30324144</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>SDrug</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Кодируй и визуализируй</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>08.08.2023</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>415</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>/sberfriend/#/media/article/30371419</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
